--- a/src/test/resources/testDataFiles/testClassExcel.xlsx
+++ b/src/test/resources/testDataFiles/testClassExcel.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mosta\IdeaProjects\ECommerce-SHAFT2\GUI_Web\src\test\resources\testDataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mosta\IdeaProjects\ECommerce-SHAFT2\src\test\resources\testDataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{864B34D9-F796-4FB7-91C8-8E38E33806F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6946EAB8-7326-48F0-B804-1F9B699891B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -187,7 +187,7 @@
     <t>Mostafaahmed9@hotmail.com</t>
   </si>
   <si>
-    <t>Mostafanageebelsayed221134567@hotmail.com</t>
+    <t>Mostafanageebelsayed22113456780@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +1008,7 @@
     <hyperlink ref="B17:B18" r:id="rId10" display="Mostafanageeb@hotmail.com" xr:uid="{6AEC6EE4-A0D8-4B5E-BAB5-1AB933C601BB}"/>
     <hyperlink ref="B6:B7" r:id="rId11" display="Mostafaahmed9@hotmail.com" xr:uid="{7F995A88-BEF2-4CBE-8B4A-18181680E1B3}"/>
     <hyperlink ref="B17" r:id="rId12" xr:uid="{4AE62F18-F94C-4AB0-8A56-DD8A5DCEC310}"/>
-    <hyperlink ref="B18:B19" r:id="rId13" display="Mostafanageeb@hotmail.com" xr:uid="{D2BA2BCD-3C06-4574-98F2-B80CC9C7AB2C}"/>
+    <hyperlink ref="B18:B19" r:id="rId13" display="Mostafanageeb@hotmail.com" xr:uid="{233D54A8-F7FE-4C71-80A4-4872E7993D68}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>

--- a/src/test/resources/testDataFiles/testClassExcel.xlsx
+++ b/src/test/resources/testDataFiles/testClassExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mosta\IdeaProjects\ECommerce-SHAFT2\src\test\resources\testDataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6946EAB8-7326-48F0-B804-1F9B699891B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87045B6C-0FDD-46AB-BC0C-06CFD443FC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -187,7 +187,7 @@
     <t>Mostafaahmed9@hotmail.com</t>
   </si>
   <si>
-    <t>Mostafanageebelsayed22113456780@hotmail.com</t>
+    <t>Mostafanageebelsayed221134567801@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -520,7 +520,7 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1008,7 +1008,7 @@
     <hyperlink ref="B17:B18" r:id="rId10" display="Mostafanageeb@hotmail.com" xr:uid="{6AEC6EE4-A0D8-4B5E-BAB5-1AB933C601BB}"/>
     <hyperlink ref="B6:B7" r:id="rId11" display="Mostafaahmed9@hotmail.com" xr:uid="{7F995A88-BEF2-4CBE-8B4A-18181680E1B3}"/>
     <hyperlink ref="B17" r:id="rId12" xr:uid="{4AE62F18-F94C-4AB0-8A56-DD8A5DCEC310}"/>
-    <hyperlink ref="B18:B19" r:id="rId13" display="Mostafanageeb@hotmail.com" xr:uid="{233D54A8-F7FE-4C71-80A4-4872E7993D68}"/>
+    <hyperlink ref="B18:B19" r:id="rId13" display="Mostafanageeb@hotmail.com" xr:uid="{AD32A76A-6289-415A-BEDF-253901025E15}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>

--- a/src/test/resources/testDataFiles/testClassExcel.xlsx
+++ b/src/test/resources/testDataFiles/testClassExcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mosta\IdeaProjects\ECommerce-SHAFT2\src\test\resources\testDataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87045B6C-0FDD-46AB-BC0C-06CFD443FC36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4FDACF-01D6-4EA5-94B0-04C3716C949C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -187,7 +187,7 @@
     <t>Mostafaahmed9@hotmail.com</t>
   </si>
   <si>
-    <t>Mostafanageebelsayed221134567801@hotmail.com</t>
+    <t>Mostafa2nageeb@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -520,7 +520,7 @@
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1008,7 +1008,7 @@
     <hyperlink ref="B17:B18" r:id="rId10" display="Mostafanageeb@hotmail.com" xr:uid="{6AEC6EE4-A0D8-4B5E-BAB5-1AB933C601BB}"/>
     <hyperlink ref="B6:B7" r:id="rId11" display="Mostafaahmed9@hotmail.com" xr:uid="{7F995A88-BEF2-4CBE-8B4A-18181680E1B3}"/>
     <hyperlink ref="B17" r:id="rId12" xr:uid="{4AE62F18-F94C-4AB0-8A56-DD8A5DCEC310}"/>
-    <hyperlink ref="B18:B19" r:id="rId13" display="Mostafanageeb@hotmail.com" xr:uid="{AD32A76A-6289-415A-BEDF-253901025E15}"/>
+    <hyperlink ref="B18:B19" r:id="rId13" display="Mostafanageeb@hotmail.com" xr:uid="{7DC0BE9E-F27C-49BF-8DA3-A8F18ABAE6FB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
